--- a/Data/Processed/Angiosperms/missing_powo_ipni/Polygalaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Polygalaceae.xlsx
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia 1: 5, pl. 4. 1888 </t>
+          <t>Vellosia 1: 5, pl. 4. 1888</t>
         </is>
       </c>
       <c r="J284" t="b">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -16382,7 +16382,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Mus. Hist. Nat. Javier Prado, Ser. B, Bot. no. 14: 2. 1963 </t>
+          <t>Publ. Mus. Hist. Nat. Javier Prado, Ser. B, Bot. no. 14: 2. 1963</t>
         </is>
       </c>
       <c r="J285" t="b">
@@ -16450,7 +16450,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -16460,7 +16460,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Mus. Hist. Nat. Javier Prado, Ser. B, Bot. no. 14: 4. 1963 </t>
+          <t>Publ. Mus. Hist. Nat. Javier Prado, Ser. B, Bot. no. 14: 4. 1963</t>
         </is>
       </c>
       <c r="J286" t="b">
@@ -16528,7 +16528,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -16538,7 +16538,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Darwiniana 9: 32, fig. 5. 1949 </t>
+          <t>Darwiniana 9: 32, fig. 5. 1949</t>
         </is>
       </c>
       <c r="J287" t="b">
@@ -16606,7 +16606,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Soc. Roy. Sci. Orléans 9: 49. 1828 [17 Nov 1828] </t>
+          <t>Ann. Soc. Roy. Sci. Orléans 9: 49. 1828 [17 Nov 1828]</t>
         </is>
       </c>
       <c r="J288" t="b">
@@ -16684,7 +16684,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -16762,7 +16762,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -16772,7 +16772,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Gray Herb. 47: 26, pl. 1, fig. 13. 1916 </t>
+          <t>Contr. Gray Herb. 47: 26, pl. 1, fig. 13. 1916</t>
         </is>
       </c>
       <c r="J290" t="b">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -16850,7 +16850,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mém. Soc. Phys. Genève 31, pt. 2, no. 2: 237, t. 24. 1893 </t>
+          <t>Mém. Soc. Phys. Genève 31, pt. 2, no. 2: 237, t. 24. 1893</t>
         </is>
       </c>
       <c r="J291" t="b">
